--- a/xlsx/行政_intext.xlsx
+++ b/xlsx/行政_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="404">
   <si>
     <t>行政</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>三權分立</t>
+    <t>三权分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E9%98%81</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>酋長</t>
+    <t>酋长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%BB%E6%95%99</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AE%B6</t>
@@ -431,9 +431,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
@@ -449,13 +446,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -479,67 +473,61 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>部長</t>
+    <t>部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>半總統制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>議會</t>
+    <t>议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
+    <t>君主立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E4%BD%8D%E5%85%83%E9%A6%96</t>
@@ -551,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -569,13 +557,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%9D%A3</t>
   </si>
   <si>
-    <t>總督</t>
+    <t>总督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -593,13 +581,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
-    <t>英國君主</t>
+    <t>英国君主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -617,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>總理</t>
+    <t>总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%9B%B8</t>
@@ -629,37 +617,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>議員</t>
+    <t>议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>內閣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會主義國家</t>
+    <t>社会主义国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>執政黨</t>
+    <t>执政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>朝鮮民主主義人民共和國</t>
+    <t>朝鲜民主主义人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -671,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E8%81%AF%E9%82%A6%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>瑞士聯邦委員會</t>
+    <t>瑞士联邦委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
@@ -725,37 +710,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>立法機構</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%AC%8A%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>五權分立</t>
+    <t>五权分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E8%A9%A6</t>
   </si>
   <si>
-    <t>考試</t>
+    <t>考试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E8%A9%A6%E9%99%A2</t>
   </si>
   <si>
-    <t>考試院</t>
+    <t>考试院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%AF%9F</t>
   </si>
   <si>
-    <t>監察</t>
+    <t>监察</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%AF%9F%E9%99%A2</t>
   </si>
   <si>
-    <t>監察院</t>
+    <t>监察院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%AD%A6</t>
@@ -779,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -791,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
@@ -980,7 +962,7 @@
     <t>https://ja.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%96%A2</t>
   </si>
   <si>
-    <t>行政機関 – 日语</t>
+    <t>行政机関 – 日语</t>
   </si>
   <si>
     <t>https://jv.wikipedia.org/wiki/Eksekutif</t>
@@ -3587,7 +3569,7 @@
         <v>137</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G69" t="n">
         <v>15</v>
@@ -3613,10 +3595,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3642,10 +3624,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>7</v>
@@ -3671,10 +3653,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3700,10 +3682,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3729,10 +3711,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3758,10 +3740,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3787,10 +3769,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3816,10 +3798,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3845,10 +3827,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3874,10 +3856,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>10</v>
@@ -3903,10 +3885,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3932,10 +3914,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3961,10 +3943,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G82" t="n">
         <v>5</v>
@@ -3990,10 +3972,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4019,10 +4001,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4048,10 +4030,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4077,10 +4059,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4106,10 +4088,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4135,10 +4117,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4164,10 +4146,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4193,10 +4175,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4222,10 +4204,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4251,10 +4233,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4280,10 +4262,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4309,10 +4291,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4338,10 +4320,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4367,10 +4349,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4396,10 +4378,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4425,10 +4407,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4454,10 +4436,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4483,10 +4465,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -4512,10 +4494,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4541,10 +4523,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4570,10 +4552,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4599,10 +4581,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4628,10 +4610,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4657,10 +4639,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4686,10 +4668,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4715,10 +4697,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4773,10 +4755,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4802,10 +4784,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4831,10 +4813,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4860,10 +4842,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>15</v>
@@ -4889,10 +4871,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4918,10 +4900,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4947,10 +4929,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4976,10 +4958,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5005,10 +4987,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5034,10 +5016,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5092,10 +5074,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5121,10 +5103,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5150,10 +5132,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5179,10 +5161,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5208,10 +5190,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5237,10 +5219,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5266,10 +5248,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5295,10 +5277,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5324,10 +5306,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -5353,10 +5335,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5382,10 +5364,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5411,10 +5393,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>5</v>
@@ -5440,10 +5422,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5469,10 +5451,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5498,10 +5480,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5527,10 +5509,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5556,10 +5538,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5585,10 +5567,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5614,10 +5596,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5643,10 +5625,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5672,10 +5654,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5701,10 +5683,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5730,10 +5712,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5759,10 +5741,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5788,10 +5770,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5817,10 +5799,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5846,10 +5828,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5875,10 +5857,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5904,10 +5886,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5933,10 +5915,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5962,10 +5944,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5991,10 +5973,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6020,10 +6002,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6049,10 +6031,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6078,10 +6060,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6107,10 +6089,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6136,10 +6118,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6165,10 +6147,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6194,10 +6176,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6223,10 +6205,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6252,10 +6234,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F161" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6281,10 +6263,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F162" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6310,10 +6292,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F163" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6339,10 +6321,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F164" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6368,10 +6350,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F165" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6397,10 +6379,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F166" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6426,10 +6408,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F167" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6455,10 +6437,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F168" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6484,10 +6466,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F169" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6513,10 +6495,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F170" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6542,10 +6524,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F171" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6571,10 +6553,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F172" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6600,10 +6582,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F173" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6629,10 +6611,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F174" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6658,10 +6640,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F175" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6687,10 +6669,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F176" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6716,10 +6698,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F177" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6745,10 +6727,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F178" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6774,10 +6756,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F179" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6803,10 +6785,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F180" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6832,10 +6814,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F181" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6861,10 +6843,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F182" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6890,10 +6872,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F183" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6919,10 +6901,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F184" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6948,10 +6930,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F185" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6977,10 +6959,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F186" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7006,10 +6988,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F187" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7035,10 +7017,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F188" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7064,10 +7046,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F189" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7093,10 +7075,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F190" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7122,10 +7104,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F191" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7151,10 +7133,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F192" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7180,10 +7162,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F193" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7209,10 +7191,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F194" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7238,10 +7220,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F195" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7267,10 +7249,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F196" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7296,10 +7278,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F197" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7325,10 +7307,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F198" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7354,10 +7336,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F199" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7383,10 +7365,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F200" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7412,10 +7394,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F201" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7441,10 +7423,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F202" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7470,10 +7452,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F203" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7499,10 +7481,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F204" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7528,10 +7510,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F205" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7557,10 +7539,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F206" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7586,10 +7568,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F207" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
